--- a/data/trans_orig/P36BPD09_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>23584</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14280</v>
+        <v>14664</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38979</v>
+        <v>39625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0343429045029924</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02079438367790952</v>
+        <v>0.02135450540537054</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05676189698694246</v>
+        <v>0.05770292019780374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -762,19 +762,19 @@
         <v>28899</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22011</v>
+        <v>21998</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39828</v>
+        <v>39501</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03950387329957622</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03008775257817552</v>
+        <v>0.03006958848369282</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05444286274378057</v>
+        <v>0.05399579076615874</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -783,19 +783,19 @@
         <v>52483</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38894</v>
+        <v>40825</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70344</v>
+        <v>71602</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03700497938334646</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02742375951929026</v>
+        <v>0.02878521758875193</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04959828706740741</v>
+        <v>0.05048537961476095</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>441838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412993</v>
+        <v>414065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468003</v>
+        <v>466072</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6434112290714562</v>
+        <v>0.6434112290714561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6014064999923057</v>
+        <v>0.6029677836371338</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6815126835208613</v>
+        <v>0.678700855980318</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>738</v>
@@ -833,19 +833,19 @@
         <v>441799</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>421360</v>
+        <v>417450</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>461593</v>
+        <v>463968</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6039181932143687</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5759788707043529</v>
+        <v>0.5706336899233948</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6309747067940309</v>
+        <v>0.6342211530857961</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1205</v>
@@ -854,19 +854,19 @@
         <v>883638</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>848533</v>
+        <v>844422</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>916491</v>
+        <v>916057</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6230403601807808</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.598288957538653</v>
+        <v>0.5953897023492528</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6462047623497728</v>
+        <v>0.6458987635293731</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>221290</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>197303</v>
+        <v>198599</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>249040</v>
+        <v>251759</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3222458664255515</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2873155500380553</v>
+        <v>0.2892031260386602</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3626559630331688</v>
+        <v>0.3666153467398414</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>452</v>
@@ -904,19 +904,19 @@
         <v>260856</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>241406</v>
+        <v>240049</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>281964</v>
+        <v>284237</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3565779334860552</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3299901960426056</v>
+        <v>0.3281346603656202</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3854306405051338</v>
+        <v>0.3885383900375112</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>690</v>
@@ -925,19 +925,19 @@
         <v>482146</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>448190</v>
+        <v>450813</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>515076</v>
+        <v>519198</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3399546604358726</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3160127582536728</v>
+        <v>0.3178620918345734</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3631729184722871</v>
+        <v>0.3660791544091898</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>77441</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58294</v>
+        <v>57949</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99244</v>
+        <v>99339</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07382985937920025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05557565665061165</v>
+        <v>0.05524660688625162</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0946157388384529</v>
+        <v>0.09470668554434125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -1050,19 +1050,19 @@
         <v>67769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53878</v>
+        <v>53647</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>84679</v>
+        <v>82526</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06333961865765336</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05035691862478185</v>
+        <v>0.0501406558830985</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07914470032542738</v>
+        <v>0.07713199673903007</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>147</v>
@@ -1071,19 +1071,19 @@
         <v>145210</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>122078</v>
+        <v>120928</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>173275</v>
+        <v>171812</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0685327207922739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05761509793037033</v>
+        <v>0.05707261965643003</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08177809131351269</v>
+        <v>0.08108758881361905</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>703282</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>666772</v>
+        <v>668130</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>737230</v>
+        <v>736986</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6704836343038804</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6356769788889736</v>
+        <v>0.63697116229463</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7028490428066688</v>
+        <v>0.702616539441414</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>990</v>
@@ -1121,19 +1121,19 @@
         <v>699416</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>669852</v>
+        <v>672074</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>725902</v>
+        <v>725869</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6537019198384864</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6260703451316285</v>
+        <v>0.6281466035803687</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.678457089177204</v>
+        <v>0.6784260485271222</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1643</v>
@@ -1142,19 +1142,19 @@
         <v>1402698</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1359843</v>
+        <v>1355594</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1442839</v>
+        <v>1446427</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6620095611525533</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6417843094329332</v>
+        <v>0.6397788402913517</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6809542375753936</v>
+        <v>0.682647983211946</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>268194</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>237584</v>
+        <v>238298</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>303388</v>
+        <v>303171</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2556865063169194</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2265042608637374</v>
+        <v>0.2271846100916811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2892396484305725</v>
+        <v>0.2890328776328165</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>440</v>
@@ -1192,19 +1192,19 @@
         <v>302746</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>277748</v>
+        <v>278087</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>328432</v>
+        <v>328795</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2829584615038603</v>
+        <v>0.2829584615038602</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2595946695744576</v>
+        <v>0.2599115826083315</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3069656538697097</v>
+        <v>0.3073046932616443</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>688</v>
@@ -1213,19 +1213,19 @@
         <v>570940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>532508</v>
+        <v>531706</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>616783</v>
+        <v>617992</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2694577180551728</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2513197133797498</v>
+        <v>0.2509413064228796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2910935627400028</v>
+        <v>0.291663930927859</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>74978</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>56936</v>
+        <v>56524</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97323</v>
+        <v>94680</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09336378957917318</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07089731546522597</v>
+        <v>0.07038417789978302</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1211888389068441</v>
+        <v>0.1178975722034373</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>94</v>
@@ -1338,19 +1338,19 @@
         <v>77279</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>63707</v>
+        <v>62877</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>95290</v>
+        <v>94075</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09514073104230886</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07843130400769101</v>
+        <v>0.07741028641230925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1173147431351552</v>
+        <v>0.1158190120294296</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>153</v>
@@ -1359,19 +1359,19 @@
         <v>152257</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>127481</v>
+        <v>128252</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>178690</v>
+        <v>178026</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09425731265936468</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07891931505212731</v>
+        <v>0.07939657981493276</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1106209804162146</v>
+        <v>0.1102099848675733</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>494929</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>459232</v>
+        <v>461061</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>524802</v>
+        <v>525444</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6162941431527126</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5718440065779363</v>
+        <v>0.5741213463776087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6534925678632313</v>
+        <v>0.6542915590506019</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>664</v>
@@ -1409,19 +1409,19 @@
         <v>522894</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>493026</v>
+        <v>497553</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>545770</v>
+        <v>547435</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.643752838141006</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6069807445194907</v>
+        <v>0.6125545051161159</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.671915678440742</v>
+        <v>0.6739666116281408</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1083</v>
@@ -1430,19 +1430,19 @@
         <v>1017823</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>977227</v>
+        <v>971615</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1064444</v>
+        <v>1052436</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6301015635055941</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.60496999567478</v>
+        <v>0.6014953519109825</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6589631683941063</v>
+        <v>0.6515291121571489</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>233166</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>204362</v>
+        <v>206939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>264519</v>
+        <v>265438</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2903420672681143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2544749698362304</v>
+        <v>0.2576844837147983</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3293836391552519</v>
+        <v>0.3305276090086963</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>289</v>
@@ -1480,19 +1480,19 @@
         <v>212086</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>190849</v>
+        <v>191811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>238367</v>
+        <v>235651</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2611064308166851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2349611030717187</v>
+        <v>0.2361452567168074</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2934623035485321</v>
+        <v>0.2901179398720745</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>487</v>
@@ -1501,19 +1501,19 @@
         <v>445252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>406156</v>
+        <v>411714</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>483286</v>
+        <v>487145</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2756411238350413</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2514380178556974</v>
+        <v>0.2548787227922842</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2991867198104998</v>
+        <v>0.3015759111110373</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>97710</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78648</v>
+        <v>78888</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121980</v>
+        <v>124292</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09885116791196423</v>
+        <v>0.09885116791196422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07956680381055124</v>
+        <v>0.07980967463018449</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1234052363735041</v>
+        <v>0.1257445970713845</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>135</v>
@@ -1626,19 +1626,19 @@
         <v>107094</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90064</v>
+        <v>88597</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>127994</v>
+        <v>128622</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0960949486022377</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08081387288251064</v>
+        <v>0.07949798360008396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.114848911459666</v>
+        <v>0.1154119834857174</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>223</v>
@@ -1647,19 +1647,19 @@
         <v>204803</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>178278</v>
+        <v>176228</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>232987</v>
+        <v>234460</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09739048250173293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08477689374623744</v>
+        <v>0.0838020167464035</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1107925827543356</v>
+        <v>0.1114932783251073</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>646352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>613543</v>
+        <v>612263</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>679504</v>
+        <v>680286</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6539036352769151</v>
+        <v>0.6539036352769152</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6207109407023883</v>
+        <v>0.6194156494557971</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6874426942646176</v>
+        <v>0.6882341435536827</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1062</v>
@@ -1697,19 +1697,19 @@
         <v>747842</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>720117</v>
+        <v>719654</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>778208</v>
+        <v>776583</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6710369088551515</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6461589800273302</v>
+        <v>0.6457433168782261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6982836712412438</v>
+        <v>0.6968260313816569</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1731</v>
@@ -1718,19 +1718,19 @@
         <v>1394195</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1350920</v>
+        <v>1351067</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1434737</v>
+        <v>1438991</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6629835813671683</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6424052443450939</v>
+        <v>0.6424750655674497</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6822625100575958</v>
+        <v>0.6842854168874658</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>244390</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>217207</v>
+        <v>214350</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>274630</v>
+        <v>273091</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2472451968111205</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2197448754208946</v>
+        <v>0.216854267698794</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2778380649516881</v>
+        <v>0.2762810605732681</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>359</v>
@@ -1768,19 +1768,19 @@
         <v>259522</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>236730</v>
+        <v>236188</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>287539</v>
+        <v>286284</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2328681425426108</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2124174178415103</v>
+        <v>0.2119307492562818</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2580075234268583</v>
+        <v>0.2568817019695866</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>606</v>
@@ -1789,19 +1789,19 @@
         <v>503912</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>466741</v>
+        <v>465485</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>545325</v>
+        <v>543781</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2396259361310989</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2219501377443971</v>
+        <v>0.221352978642372</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2593193657589807</v>
+        <v>0.2585848244439378</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>273713</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238653</v>
+        <v>239993</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>312793</v>
+        <v>313284</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07760156462450424</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06766166079588075</v>
+        <v>0.06804162844948849</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08868145421281176</v>
+        <v>0.0888206867104557</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>359</v>
@@ -1914,19 +1914,19 @@
         <v>281041</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>251264</v>
+        <v>251248</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>312599</v>
+        <v>309982</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07538242241446128</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06739536417506226</v>
+        <v>0.06739109102893839</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0838470552163522</v>
+        <v>0.08314511597496409</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>589</v>
@@ -1935,19 +1935,19 @@
         <v>554754</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>504689</v>
+        <v>508282</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>603421</v>
+        <v>608796</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07646124699927805</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06956092147228661</v>
+        <v>0.07005617471185294</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08316907014188057</v>
+        <v>0.08390981989362568</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>2286401</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2225500</v>
+        <v>2222512</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2347546</v>
+        <v>2348616</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6482284141425443</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.63096188311459</v>
+        <v>0.6301148047923653</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6655637030444459</v>
+        <v>0.6658672810261406</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3454</v>
@@ -1985,19 +1985,19 @@
         <v>2411951</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2361911</v>
+        <v>2355592</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2469742</v>
+        <v>2459190</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6469475534164036</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6335253990374955</v>
+        <v>0.6318305728332581</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6624484813070527</v>
+        <v>0.6596182952007672</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5662</v>
@@ -2006,19 +2006,19 @@
         <v>4698353</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4609886</v>
+        <v>4619552</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4775805</v>
+        <v>4776977</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6475702372781378</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6353769023368884</v>
+        <v>0.6367092692894889</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6582454192136258</v>
+        <v>0.6584069341484361</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>967040</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>911619</v>
+        <v>911528</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1024376</v>
+        <v>1028270</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2741700212329515</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2584575073554385</v>
+        <v>0.2584315616271652</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2904255573935544</v>
+        <v>0.2915295231834183</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1540</v>
@@ -2056,19 +2056,19 @@
         <v>1035210</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>986517</v>
+        <v>990936</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1086012</v>
+        <v>1087355</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.277670024169135</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.264609368880815</v>
+        <v>0.2657946464397696</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2912964427728247</v>
+        <v>0.2916565656052375</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2471</v>
@@ -2077,19 +2077,19 @@
         <v>2002250</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1928983</v>
+        <v>1930248</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2080509</v>
+        <v>2076204</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2759685157225842</v>
+        <v>0.2759685157225841</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2658702143045646</v>
+        <v>0.2660445435118779</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2867549726242108</v>
+        <v>0.2861615260465598</v>
       </c>
     </row>
     <row r="23">
